--- a/biology/Botanique/Parc_Blondlot/Parc_Blondlot.xlsx
+++ b/biology/Botanique/Parc_Blondlot/Parc_Blondlot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Blondlot est un jardin public du centre-ville de Nancy, d'une superficie de 5 800 m2. Initialement propriété privée, le site appartient à la ville de Nancy depuis 1932.
@@ -512,12 +524,14 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entrée du parc est située quai Claude-le-Lorrain. Le site se place à proximité de la tour Thiers et de la gare de Nancy, le long de la voie ferrée au nord de celle-ci.
 D'une superficie de 5 800 m2, le parc contient d'une part un parterre à la française, aux allées géométriques, situé à l'emplacement de l'ancienne maison, et d'autre part un grand espace paysager garni d'arbres remarquables et comprenant un kiosque et un bassin.
 Parmi les espèces présentes dans le parc on trouve : ginkgo biloba, figuier commun, châtaignier commun, micocoulier de Provence, sophora du Japon, rhododendron, azalée, céanothe, érable, magnolia.
-Le parc offre une aire de jeux pour les enfants de 3 à 7 ans[1].
+Le parc offre une aire de jeux pour les enfants de 3 à 7 ans.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Blondlot tient son nom de René Blondlot, physicien connu pour être l'instigateur d'une des plus grandes erreurs du XXe siècle avec l'annonce des rayons N, qui a vécu dans cette propriété jusqu'à sa mort en 1930. Il l'a léguée par testament à la ville de Nancy, à la condition qu'elle la transforme en jardin public.
 </t>
@@ -577,9 +593,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ville est devenue propriétaire en 1932[1], et le parc a été ouvert au public en 1933, après la destruction de la maison et l'aménagement des jardins.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville est devenue propriétaire en 1932, et le parc a été ouvert au public en 1933, après la destruction de la maison et l'aménagement des jardins.
 </t>
         </is>
       </c>
